--- a/sofaaudit/Apple.xlsx
+++ b/sofaaudit/Apple.xlsx
@@ -9508,7 +9508,7 @@
   <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
